--- a/Stock-XLSX/FF-EBonds/LOW.xlsx
+++ b/Stock-XLSX/FF-EBonds/LOW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/Freedom-Fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/FF-EBonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{25D94F1C-EE58-4603-941F-F46FED84F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3350E0E1-6284-4FFC-A9DA-0833756EC23C}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{25D94F1C-EE58-4603-941F-F46FED84F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4D5172-AE56-4AF8-B42F-AF3D2F669A7E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="6" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="3" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="DYT" sheetId="4" r:id="rId1"/>
@@ -521,6 +521,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,7 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1140,8 +1140,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}" name="Table2" displayName="Table2" ref="B3:T34" totalsRowShown="0">
-  <autoFilter ref="B3:T34" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}" name="Table2" displayName="Table2" ref="B3:T35" totalsRowShown="0">
+  <autoFilter ref="B3:T35" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{E95A5EA6-8C37-450D-BF76-C50C15336E54}" name="FY"/>
     <tableColumn id="2" xr3:uid="{8747F51E-820F-4468-BCC3-48363D5907BA}" name="PriceLow" dataDxfId="35" dataCellStyle="Currency"/>
@@ -1590,7 +1590,7 @@
   <dimension ref="B3:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K4" sqref="K4:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D69F2-57A8-4AF2-8759-F26D94DB8BCC}">
-  <dimension ref="B3:T34"/>
+  <dimension ref="B3:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O22:O33"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,7 +4602,7 @@
       <c r="L34" s="25"/>
       <c r="M34" s="21"/>
       <c r="N34" s="3">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="19"/>
@@ -4620,8 +4620,30 @@
       </c>
       <c r="T34" s="31">
         <f>(Table2[[#This Row],[Div]]-N33)/N33</f>
-        <v>0.23333333333333339</v>
-      </c>
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6499,7 +6521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77939E-B893-4A61-818C-43CD02673FE9}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:F32"/>
     </sheetView>
   </sheetViews>
@@ -9602,8 +9624,8 @@
   </sheetPr>
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9626,20 +9648,20 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
@@ -9690,47 +9712,47 @@
         <v>47</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K4" s="3">
         <f>(J4*$J6)+J4</f>
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:T4" si="0">(K4*$J6)+K4</f>
-        <v>0</v>
+        <v>5.5545</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.3876749999999998</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.34582625</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.4477001875000006</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7148552156250005</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.172083497968751</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.847896022664063</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.775080426063672</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.991342489973224</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -9741,7 +9763,7 @@
         <v>48</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="K5" s="1" t="e">
         <f>K4/$J7</f>
@@ -9792,7 +9814,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="17">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -9813,49 +9835,49 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="2" t="e">
+      <c r="J8" s="2">
         <f>J4/$J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2" t="e">
+        <v>2.441860465116279E-2</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" ref="K8:T8" si="2">K4/$J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
+        <v>2.8081395348837211E-2</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2" t="e">
+        <v>3.2293604651162794E-2</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="2" t="e">
+        <v>3.7137645348837206E-2</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="2" t="e">
+        <v>4.2708292151162792E-2</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="2" t="e">
+        <v>4.9114535973837213E-2</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="2" t="e">
+        <v>5.6481716369912796E-2</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="2" t="e">
+        <v>6.4953973825399719E-2</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="2" t="e">
+        <v>7.469706989920967E-2</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="2" t="e">
+        <v>8.5901630384091113E-2</v>
+      </c>
+      <c r="T8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.8786874941704794E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -9872,18 +9894,18 @@
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
@@ -10068,26 +10090,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="37"/>
+      <c r="K2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">

--- a/Stock-XLSX/FF-EBonds/LOW.xlsx
+++ b/Stock-XLSX/FF-EBonds/LOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/FF-EBonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{25D94F1C-EE58-4603-941F-F46FED84F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4D5172-AE56-4AF8-B42F-AF3D2F669A7E}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{25D94F1C-EE58-4603-941F-F46FED84F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456A77F8-C2D2-49A6-A169-CC1C5C6A1687}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="3" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="2070" yWindow="3720" windowWidth="21600" windowHeight="11295" tabRatio="720" activeTab="6" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="DYT" sheetId="4" r:id="rId1"/>
@@ -6521,7 +6521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77939E-B893-4A61-818C-43CD02673FE9}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:F32"/>
     </sheetView>
   </sheetViews>
@@ -9624,8 +9624,8 @@
   </sheetPr>
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9716,43 +9716,43 @@
       </c>
       <c r="K4" s="3">
         <f>(J4*$J6)+J4</f>
-        <v>4.83</v>
+        <v>4.7040000000000006</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:T4" si="0">(K4*$J6)+K4</f>
-        <v>5.5545</v>
+        <v>5.2684800000000003</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>6.3876749999999998</v>
+        <v>5.9006976</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>7.34582625</v>
+        <v>6.6087813119999996</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="0"/>
-        <v>8.4477001875000006</v>
+        <v>7.4018350694399997</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>9.7148552156250005</v>
+        <v>8.2900552777727992</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>11.172083497968751</v>
+        <v>9.2848619111055353</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="0"/>
-        <v>12.847896022664063</v>
+        <v>10.3990453404382</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" si="0"/>
-        <v>14.775080426063672</v>
+        <v>11.646930781290784</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
-        <v>16.991342489973224</v>
+        <v>13.044562475045678</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -9765,45 +9765,45 @@
       <c r="J5" s="3">
         <v>172</v>
       </c>
-      <c r="K5" s="1" t="e">
+      <c r="K5" s="1">
         <f>K4/$J7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="1" t="e">
+        <v>235.20000000000002</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" ref="L5:T5" si="1">L4/$J7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="1" t="e">
+        <v>263.42400000000004</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="1" t="e">
+        <v>295.03487999999999</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="1" t="e">
+        <v>330.43906559999999</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="1" t="e">
+        <v>370.09175347199999</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="1" t="e">
+        <v>414.50276388863995</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="1" t="e">
+        <v>464.24309555527674</v>
+      </c>
+      <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="1" t="e">
+        <v>519.95226702190996</v>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="1" t="e">
+        <v>582.34653906453923</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>652.22812375228386</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -9814,7 +9814,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="17">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -9825,7 +9825,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -9841,43 +9841,43 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:T8" si="2">K4/$J5</f>
-        <v>2.8081395348837211E-2</v>
+        <v>2.734883720930233E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>3.2293604651162794E-2</v>
+        <v>3.0630697674418606E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>3.7137645348837206E-2</v>
+        <v>3.4306381395348834E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>4.2708292151162792E-2</v>
+        <v>3.8423147162790695E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>4.9114535973837213E-2</v>
+        <v>4.3033924822325577E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>5.6481716369912796E-2</v>
+        <v>4.8197995801004645E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>6.4953973825399719E-2</v>
+        <v>5.3981755297125206E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="2"/>
-        <v>7.469706989920967E-2</v>
+        <v>6.0459565932780228E-2</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="2"/>
-        <v>8.5901630384091113E-2</v>
+        <v>6.7714713844713864E-2</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="2"/>
-        <v>9.8786874941704794E-2</v>
+        <v>7.5840479506079528E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
